--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/FPF/5.60/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/FPF/5.60/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione/Caricamento SMART/FPF/DA CARICARE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="13_ncr:1_{8E096896-1A5D-440F-9CDB-C984B19F7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8AF26A7-C99D-4BFE-A202-9DF74BAA0369}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{8E096896-1A5D-440F-9CDB-C984B19F7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4767699-E135-4367-B0C6-0537EFA57CBA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1770,15 +1770,6 @@
     <t>Non è possibile valorizzare il codice in questione con un valore diverso da S quindi l'utente non può mai incorrere in questo errore / scenario</t>
   </si>
   <si>
-    <t>2025-04-23T05:46:16Z</t>
-  </si>
-  <si>
-    <t>9c20e7c263645be98b4558471bbd128f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.2e28b53549^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Come da email del 13/01/2025 di Segreteria Tecnica FSE - Andrea Di Pietra con oggetto Oggetto: FSE 2.0 - Richiesta di sollecito accreditamento applicativi (cha ha superato il Test 0) , dove si specifica che "il superamento della fase 1 del processo di accreditamento è ritenuto valido se l’applicativo supera almeno il caso di test 1, tra quelli attualmente previsti per il Profilo Sanitario Sintetico sul sito di GitHub Test Case Profilo Sanitario Sintetico."</t>
   </si>
   <si>
@@ -1789,6 +1780,15 @@
   </si>
   <si>
     <t>subject_application_version: 5.60</t>
+  </si>
+  <si>
+    <t>2025-05-13T09:18:18Z</t>
+  </si>
+  <si>
+    <t>ca16ccfb9548e81a22749fa5ee149deb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.4556cd7081^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3960,10 +3960,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D141" sqref="D141"/>
+      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="63" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D3" s="55"/>
       <c r="F3" s="6"/>
@@ -4062,7 +4062,7 @@
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="63" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="4"/>
@@ -4089,7 +4089,7 @@
       <c r="A5" s="61"/>
       <c r="B5" s="62"/>
       <c r="C5" s="63" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D5" s="55"/>
       <c r="F5" s="6"/>
@@ -10208,16 +10208,16 @@
         <v>247</v>
       </c>
       <c r="F167" s="46">
-        <v>45770</v>
+        <v>45784</v>
       </c>
       <c r="G167" s="47" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H167" s="47" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I167" s="47" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J167" s="48" t="s">
         <v>64</v>
@@ -10265,7 +10265,7 @@
         <v>243</v>
       </c>
       <c r="L168" s="38" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
@@ -11048,7 +11048,7 @@
         <v>243</v>
       </c>
       <c r="L189" s="38" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M189" s="35"/>
       <c r="N189" s="35"/>

--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/FPF/5.60/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/FPF/5.60/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione/Caricamento SMART/FPF/DA CARICARE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele.Romanazzi\Downloads\invio 16 maggio 2025\invio 16 maggio 2025\FPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{8E096896-1A5D-440F-9CDB-C984B19F7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4767699-E135-4367-B0C6-0537EFA57CBA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99850D1-0796-42DA-9589-D42FB03EDAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="464">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1725,9 +1725,6 @@
     <t>Il medico clicca su "OK" sulla finestra di errore quindi può ritentare l'invio</t>
   </si>
   <si>
-    <t>Non eseguito</t>
-  </si>
-  <si>
     <t>Il nostro sw non permette di incorrere in questo caso in quanto anche se assenti in cartella clinica la città di residenza/domicilio del paziente il campo "city" viene sempre inviato vuoto essendo obbligatorio</t>
   </si>
   <si>
@@ -1782,13 +1779,19 @@
     <t>subject_application_version: 5.60</t>
   </si>
   <si>
-    <t>2025-05-13T09:18:18Z</t>
-  </si>
-  <si>
-    <t>ca16ccfb9548e81a22749fa5ee149deb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.4556cd7081^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-15T09:22:39Z</t>
+  </si>
+  <si>
+    <t>95a6f1720b4de2464dd5c4456d90a0cd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.b7ab0233d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il nostro sw non permette all'utente di poter evitare di inserire il livello di riservatezza in quanto il dato è obbligatorio e di default valorizzato a "N"</t>
+  </si>
+  <si>
+    <t>Il nostro sw non permette di inviare un CF paziente non conforme o con caratteri minuscoli</t>
   </si>
 </sst>
 </file>
@@ -2581,10 +2584,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3960,10 +3959,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
+      <selection pane="bottomRight" activeCell="L141" sqref="L141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4036,7 +4035,7 @@
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="63" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D3" s="55"/>
       <c r="F3" s="6"/>
@@ -4062,7 +4061,7 @@
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="63" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="4"/>
@@ -4089,7 +4088,7 @@
       <c r="A5" s="61"/>
       <c r="B5" s="62"/>
       <c r="C5" s="63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D5" s="55"/>
       <c r="F5" s="6"/>
@@ -8906,8 +8905,8 @@
       <c r="K134" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L134" s="38" t="s">
-        <v>441</v>
+      <c r="L134" t="s">
+        <v>463</v>
       </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -8950,7 +8949,7 @@
         <v>243</v>
       </c>
       <c r="L135" s="45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -8993,7 +8992,7 @@
         <v>243</v>
       </c>
       <c r="L136" s="45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -9036,7 +9035,7 @@
         <v>243</v>
       </c>
       <c r="L137" s="45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -9079,7 +9078,7 @@
         <v>243</v>
       </c>
       <c r="L138" s="45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -9122,7 +9121,7 @@
         <v>243</v>
       </c>
       <c r="L139" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
@@ -9165,7 +9164,7 @@
         <v>243</v>
       </c>
       <c r="L140" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -9208,7 +9207,7 @@
         <v>243</v>
       </c>
       <c r="L141" s="45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -9251,7 +9250,7 @@
         <v>243</v>
       </c>
       <c r="L142" s="45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -9294,7 +9293,7 @@
         <v>243</v>
       </c>
       <c r="L143" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -9337,7 +9336,7 @@
         <v>243</v>
       </c>
       <c r="L144" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -9380,7 +9379,7 @@
         <v>243</v>
       </c>
       <c r="L145" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
@@ -9423,7 +9422,7 @@
         <v>243</v>
       </c>
       <c r="L146" s="45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M146" s="38"/>
       <c r="N146" s="38"/>
@@ -9466,7 +9465,7 @@
         <v>243</v>
       </c>
       <c r="L147" s="45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
@@ -9509,7 +9508,7 @@
         <v>243</v>
       </c>
       <c r="L148" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M148" s="38"/>
       <c r="N148" s="38"/>
@@ -10208,16 +10207,16 @@
         <v>247</v>
       </c>
       <c r="F167" s="46">
-        <v>45784</v>
+        <v>45792</v>
       </c>
       <c r="G167" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="H167" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="H167" s="47" t="s">
+      <c r="I167" s="47" t="s">
         <v>461</v>
-      </c>
-      <c r="I167" s="47" t="s">
-        <v>462</v>
       </c>
       <c r="J167" s="48" t="s">
         <v>64</v>
@@ -10265,7 +10264,7 @@
         <v>243</v>
       </c>
       <c r="L168" s="38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
@@ -11047,8 +11046,8 @@
       <c r="K189" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="L189" s="38" t="s">
-        <v>456</v>
+      <c r="L189" t="s">
+        <v>462</v>
       </c>
       <c r="M189" s="35"/>
       <c r="N189" s="35"/>
@@ -17548,12 +17547,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17815,21 +17817,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17854,18 +17862,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
